--- a/OT_Tracker.xlsx
+++ b/OT_Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\69454\Downloads\templatemo_592_glossy_touch-20260207T082704Z-1-001\templatemo_592_glossy_touch\templatemo_592_glossy_touch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bainandcompany-my.sharepoint.com/personal/mdattesar_ahmad_bain_com/Documents/Documents/OT_Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53373DD9-9A74-40FB-8E61-8C51790B3100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0CF161F4D64E084F625980F541322E3B4D06D12E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C94E9C2-5ACA-4482-BE98-6EA513410584}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -615,8 +615,8 @@
   <dimension ref="A1:R1565"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="E44:G44"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3195,9 +3195,7 @@
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
-      <c r="E99" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>

--- a/OT_Tracker.xlsx
+++ b/OT_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bainandcompany-my.sharepoint.com/personal/mdattesar_ahmad_bain_com/Documents/Documents/OT_Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0CF161F4D64E084F625980F541322E3B4D06D12E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C94E9C2-5ACA-4482-BE98-6EA513410584}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7B69B21CD171604F625980F541322E3B4D063645" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{258222BA-8012-498D-85AB-EB9578D0664A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,8 +615,8 @@
   <dimension ref="A1:R1565"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
